--- a/file_service/person.xlsx
+++ b/file_service/person.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -398,10 +398,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -409,6 +409,8 @@
     <col width="27.42578125" customWidth="1" min="1" max="2"/>
     <col width="27.28515625" customWidth="1" min="3" max="3"/>
     <col width="27.85546875" customWidth="1" min="4" max="4"/>
+    <col width="27.42578125" customWidth="1" min="5" max="5"/>
+    <col width="27.140625" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -432,6 +434,21 @@
           <t>Aloqa raqami</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Rasmlar soni</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Maktab raqami</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Yoshi</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -642,6 +659,43 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>+998971300087</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Amirov AKrom Eshali o'g'li</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>+12676860109</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Cyber_Securety</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>+998945289910</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>

--- a/file_service/person.xlsx
+++ b/file_service/person.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -699,6 +699,154 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ganiyva Nafisaxon Sardor qizi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>998994884859</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>994884859</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>23 maktab</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>8 yosh</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Isoqov Eldor Fayzullayevich</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>998971300087</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>eldorisoqov</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>971300087</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Isoqov Eldor Fayzullayevich</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>998971300087</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>eldorisoqov</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>971300087</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>998971300087</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>eldorisoqov</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>97 130 00 87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
